--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2774" uniqueCount="487">
   <si>
     <t>Property</t>
   </si>
@@ -983,7 +983,7 @@
     <t>MedicationDispense.medication[x]</t>
   </si>
   <si>
-    <t>What medication was supplied　医薬品</t>
+    <t>コード集で定義された医薬品コード</t>
   </si>
   <si>
     <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
@@ -1001,17 +1001,10 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t>どの物質または製品を分配できるかを特定するコード化された概念。 / A coded concept identifying which substance or product can be dispensed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>処方する製剤を表すコード。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1027,21 +1020,6 @@
   </si>
   <si>
     <t>RXD-2-Dispense/Give Code</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x]:medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>コード集で定義された医薬品コード</t>
-  </si>
-  <si>
-    <t>処方する製剤を表すコード。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationDispense.subject</t>
@@ -1907,7 +1885,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO75"/>
+  <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1916,9 +1894,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.73046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="48.12109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.47265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.3125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -7060,7 +7038,7 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>299</v>
+        <v>112</v>
       </c>
       <c r="Y44" t="s" s="2">
         <v>315</v>
@@ -7072,14 +7050,16 @@
         <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>311</v>
@@ -7097,31 +7077,29 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7142,16 +7120,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>195</v>
+        <v>323</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7177,13 +7155,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7201,10 +7179,10 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>88</v>
@@ -7216,27 +7194,27 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7244,7 +7222,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>88</v>
@@ -7256,19 +7234,19 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7318,7 +7296,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7333,27 +7311,27 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7364,7 +7342,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7376,16 +7354,16 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="N47" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7435,13 +7413,13 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
@@ -7450,13 +7428,13 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7467,10 +7445,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7493,17 +7471,15 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7552,7 +7528,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7567,13 +7543,13 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>348</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7584,10 +7560,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7598,7 +7574,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7610,13 +7586,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>351</v>
+        <v>171</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>352</v>
+        <v>172</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>353</v>
+        <v>173</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7667,25 +7643,25 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>350</v>
+        <v>174</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>355</v>
+        <v>175</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7699,21 +7675,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7725,15 +7701,17 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7782,19 +7760,19 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -7814,14 +7792,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>147</v>
+        <v>352</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7834,24 +7812,26 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>178</v>
+        <v>353</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>179</v>
+        <v>354</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7899,7 +7879,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>181</v>
+        <v>355</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7917,7 +7897,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7931,45 +7911,43 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>151</v>
+        <v>359</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -7994,13 +7972,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -8018,25 +7996,25 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8061,7 +8039,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>88</v>
@@ -8076,18 +8054,16 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>195</v>
+        <v>364</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>366</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8111,13 +8087,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8138,7 +8114,7 @@
         <v>363</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>88</v>
@@ -8150,10 +8126,10 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8167,10 +8143,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8178,7 +8154,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
@@ -8193,15 +8169,17 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8250,10 +8228,10 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>88</v>
@@ -8265,10 +8243,10 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8282,10 +8260,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8296,7 +8274,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8308,16 +8286,16 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8367,13 +8345,13 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
@@ -8382,7 +8360,7 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>380</v>
@@ -8391,18 +8369,18 @@
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8413,7 +8391,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8425,16 +8403,16 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>382</v>
+        <v>195</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8460,13 +8438,13 @@
         <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>79</v>
@@ -8484,13 +8462,13 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
@@ -8499,27 +8477,27 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8527,7 +8505,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8542,16 +8520,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>195</v>
+        <v>393</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8577,13 +8555,13 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -8601,7 +8579,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8610,33 +8588,33 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>397</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8644,7 +8622,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8659,7 +8637,7 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>401</v>
@@ -8668,7 +8646,7 @@
         <v>402</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8718,7 +8696,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8730,13 +8708,13 @@
         <v>145</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8745,15 +8723,15 @@
         <v>79</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8773,20 +8751,18 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8835,34 +8811,34 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AG59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60">
@@ -8878,7 +8854,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
@@ -8890,16 +8866,16 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8965,7 +8941,7 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>414</v>
@@ -8974,18 +8950,18 @@
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8993,7 +8969,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>88</v>
@@ -9008,15 +8984,17 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9065,7 +9043,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9080,27 +9058,27 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>416</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9111,7 +9089,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9123,7 +9101,7 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>423</v>
@@ -9132,7 +9110,7 @@
         <v>424</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9182,13 +9160,13 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
@@ -9209,15 +9187,15 @@
         <v>426</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9240,16 +9218,16 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9299,7 +9277,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9314,27 +9292,27 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9357,10 +9335,10 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>437</v>
@@ -9416,7 +9394,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9431,11 +9409,11 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AL64" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9443,15 +9421,15 @@
         <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9462,7 +9440,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9474,17 +9452,15 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>443</v>
+        <v>344</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9533,13 +9509,13 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
@@ -9551,13 +9527,13 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -9565,10 +9541,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9591,13 +9567,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>351</v>
+        <v>171</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>448</v>
+        <v>172</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>449</v>
+        <v>173</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9648,7 +9624,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>447</v>
+        <v>174</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9660,19 +9636,19 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>450</v>
+        <v>175</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -9680,21 +9656,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9706,15 +9682,17 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -9763,19 +9741,19 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -9795,14 +9773,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>147</v>
+        <v>352</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9815,24 +9793,26 @@
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>178</v>
+        <v>353</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>179</v>
+        <v>354</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="O68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9880,7 +9860,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>181</v>
+        <v>355</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -9898,7 +9878,7 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -9912,46 +9892,42 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>133</v>
+        <v>449</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
       </c>
@@ -9999,25 +9975,25 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>362</v>
+        <v>448</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>131</v>
+        <v>452</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10031,10 +10007,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10042,7 +10018,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>88</v>
@@ -10057,15 +10033,17 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10090,13 +10068,13 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
@@ -10114,10 +10092,10 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>88</v>
@@ -10132,24 +10110,24 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AM70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AO70" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10160,7 +10138,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10175,13 +10153,13 @@
         <v>195</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>463</v>
+        <v>386</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10231,13 +10209,13 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
@@ -10249,16 +10227,16 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>396</v>
+        <v>466</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
@@ -10289,16 +10267,16 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>195</v>
+        <v>469</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>393</v>
+        <v>326</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10324,13 +10302,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10366,13 +10344,13 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10380,14 +10358,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10415,7 +10393,7 @@
         <v>478</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>333</v>
+        <v>479</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10465,7 +10443,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10483,13 +10461,13 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -10504,7 +10482,7 @@
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10523,16 +10501,16 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10600,7 +10578,7 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10609,123 +10587,6 @@
         <v>79</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO75" t="s" s="2">
         <v>79</v>
       </c>
     </row>
